--- a/Column Mapping.xlsx
+++ b/Column Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sammi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F4F3648-2508-4E4D-9824-EA80105EF191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7625A8BA-281D-E14A-8D66-E8C213973AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15920" xr2:uid="{DBBFD5A9-5CF2-AE4A-8A9E-9C7F15331C23}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="170">
   <si>
     <t>82 column names</t>
   </si>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D99D6CC-25A4-6B4C-8C42-7CFAB61BFE5B}">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,6 +994,9 @@
       <c r="G1" s="1">
         <v>80</v>
       </c>
+      <c r="I1">
+        <v>79</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3286,9 +3289,7 @@
       <c r="G95" s="4"/>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H107" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="H107" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
